--- a/result/summary_results.xlsx
+++ b/result/summary_results.xlsx
@@ -1016,52 +1016,52 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.8784</t>
+          <t>0.8929</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.8984</t>
+          <t>0.9068</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.8581</t>
+          <t>0.8726</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.8960</t>
+          <t>0.9004</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.8649</t>
+          <t>0.8523</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.8768</t>
+          <t>0.8672</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.6392</t>
+          <t>0.6460</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.7585</t>
+          <t>0.7613</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.5029</t>
+          <t>0.5786</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.7103</t>
+          <t>0.7421</t>
         </is>
       </c>
     </row>
@@ -1081,52 +1081,52 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.8784</t>
+          <t>0.8795</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.8984</t>
+          <t>0.9018</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.8581</t>
+          <t>0.8701</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.8960</t>
+          <t>0.8985</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.8649</t>
+          <t>0.8643</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.8768</t>
+          <t>0.8729</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.6392</t>
+          <t>0.6484</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.7585</t>
+          <t>0.7612</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.5029</t>
+          <t>0.5690</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.7103</t>
+          <t>0.7348</t>
         </is>
       </c>
     </row>
@@ -1601,52 +1601,52 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.8833</t>
+          <t>0.8945</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.9038</t>
+          <t>0.9097</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.8948</t>
+          <t>0.8925</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.9151</t>
+          <t>0.9178</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.8733</t>
+          <t>0.8929</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.8840</t>
+          <t>0.8977</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.6693</t>
+          <t>0.6702</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.7775</t>
+          <t>0.7792</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.6208</t>
+          <t>0.5548</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.7634</t>
+          <t>0.7375</t>
         </is>
       </c>
     </row>
@@ -1666,52 +1666,52 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.8833</t>
+          <t>0.8857</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.9038</t>
+          <t>0.9030</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.8948</t>
+          <t>0.8998</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.9151</t>
+          <t>0.9191</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.8733</t>
+          <t>0.8943</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.8840</t>
+          <t>0.8990</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.6693</t>
+          <t>0.6888</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.7775</t>
+          <t>0.7865</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.6208</t>
+          <t>0.5887</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.7634</t>
+          <t>0.7520</t>
         </is>
       </c>
     </row>

--- a/result/summary_results.xlsx
+++ b/result/summary_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.8436</t>
+          <t>0.7043</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8796</t>
+          <t>0.7811</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8187</t>
+          <t>0.7049</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.7370</t>
+          <t>0.5306</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.6644</t>
+          <t>0.3680</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.8530</t>
+          <t>0.7204</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8695</t>
+          <t>0.7634</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8133</t>
+          <t>0.6951</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.7326</t>
+          <t>0.5246</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.6528</t>
+          <t>0.3382</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.3580</t>
+          <t>0.0694</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5230</t>
+          <t>0.1944</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4074</t>
+          <t>0.2266</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.4354</t>
+          <t>0.0906</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.2114</t>
+          <t>0.0603</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.8114</t>
+          <t>0.6370</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8633</t>
+          <t>0.7511</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.8147</t>
+          <t>0.6989</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.7137</t>
+          <t>0.4800</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.6258</t>
+          <t>0.2853</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.8935</t>
+          <t>0.7938</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8831</t>
+          <t>0.7848</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.8751</t>
+          <t>0.7974</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.7585</t>
+          <t>0.5618</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.7165</t>
+          <t>0.4562</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.8935</t>
+          <t>0.7938</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.8831</t>
+          <t>0.7848</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.8751</t>
+          <t>0.7974</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.7585</t>
+          <t>0.5618</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.7165</t>
+          <t>0.4562</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.8984</t>
+          <t>0.8058</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.8960</t>
+          <t>0.8078</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.8768</t>
+          <t>0.7991</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.7585</t>
+          <t>0.5652</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.7103</t>
+          <t>0.4433</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.9068</t>
+          <t>0.8213</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.9004</t>
+          <t>0.8182</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.8672</t>
+          <t>0.7859</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.7613</t>
+          <t>0.5693</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.7421</t>
+          <t>0.5067</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.9018</t>
+          <t>0.8107</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.8985</t>
+          <t>0.8147</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.8729</t>
+          <t>0.7954</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.7612</t>
+          <t>0.5708</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.7348</t>
+          <t>0.4962</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.9032</t>
+          <t>0.8134</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.8925</t>
+          <t>0.8026</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.8754</t>
+          <t>0.7979</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.7643</t>
+          <t>0.5751</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.7238</t>
+          <t>0.4689</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.9032</t>
+          <t>0.8134</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.8925</t>
+          <t>0.8026</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.8754</t>
+          <t>0.7979</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.7643</t>
+          <t>0.5751</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.7238</t>
+          <t>0.4689</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.9032</t>
+          <t>0.8134</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.8925</t>
+          <t>0.8026</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.8754</t>
+          <t>0.7979</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.7643</t>
+          <t>0.5751</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.7238</t>
+          <t>0.4689</t>
         </is>
       </c>
     </row>
@@ -1331,62 +1331,62 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_Resnet18_ResDecoder</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_8_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.8546</t>
+          <t>0.8830</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.8887</t>
+          <t>0.8152</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.8744</t>
+          <t>0.8598</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.9048</t>
+          <t>0.8077</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.8929</t>
+          <t>0.8697</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.8959</t>
+          <t>0.8036</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.6930</t>
+          <t>0.6632</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.7924</t>
+          <t>0.5895</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.5775</t>
+          <t>0.5658</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.7468</t>
+          <t>0.4982</t>
         </is>
       </c>
     </row>
@@ -1396,62 +1396,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Resnet34_MHSABridge_ResDecoder</t>
+          <t>Resnet18_Resnet18_ResDecoder</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_8_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.8546</t>
+          <t>0.8845</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.8887</t>
+          <t>0.8179</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.8744</t>
+          <t>0.8831</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.9048</t>
+          <t>0.8346</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.8929</t>
+          <t>0.8825</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.8959</t>
+          <t>0.8198</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.6930</t>
+          <t>0.6847</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.7924</t>
+          <t>0.6102</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.5775</t>
+          <t>0.5649</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.7468</t>
+          <t>0.4979</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_8_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_256_bs_8_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.8887</t>
+          <t>0.7863</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.9048</t>
+          <t>0.8258</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.8959</t>
+          <t>0.8298</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.7924</t>
+          <t>0.6230</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.7468</t>
+          <t>0.5127</t>
         </is>
       </c>
     </row>
@@ -1531,57 +1531,57 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_256_bs_8_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.8833</t>
+          <t>0.8546</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.9038</t>
+          <t>0.7863</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.8948</t>
+          <t>0.8744</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.9151</t>
+          <t>0.8258</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.8733</t>
+          <t>0.8929</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.8840</t>
+          <t>0.8298</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.6693</t>
+          <t>0.6930</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.7775</t>
+          <t>0.6230</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.6208</t>
+          <t>0.5775</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.7634</t>
+          <t>0.5127</t>
         </is>
       </c>
     </row>
@@ -1596,27 +1596,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_256_bs_8_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.8945</t>
+          <t>0.8546</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.9097</t>
+          <t>0.7863</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.8925</t>
+          <t>0.8744</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.9178</t>
+          <t>0.8258</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1626,27 +1626,27 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.8977</t>
+          <t>0.8298</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.6702</t>
+          <t>0.6930</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.7792</t>
+          <t>0.6230</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.5548</t>
+          <t>0.5775</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.7375</t>
+          <t>0.5127</t>
         </is>
       </c>
     </row>
@@ -1661,57 +1661,57 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.8857</t>
+          <t>0.8833</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.9030</t>
+          <t>0.8147</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.8998</t>
+          <t>0.8948</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.9191</t>
+          <t>0.8448</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.8943</t>
+          <t>0.8733</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.8990</t>
+          <t>0.8100</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.6888</t>
+          <t>0.6693</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.7865</t>
+          <t>0.5988</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.5887</t>
+          <t>0.6208</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.7520</t>
+          <t>0.5474</t>
         </is>
       </c>
     </row>
@@ -1726,57 +1726,57 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_2.log</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.8807</t>
+          <t>0.8945</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.9054</t>
+          <t>0.8261</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.8945</t>
+          <t>0.8925</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.9194</t>
+          <t>0.8462</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.8855</t>
+          <t>0.8929</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.8926</t>
+          <t>0.8323</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.6961</t>
+          <t>0.6702</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.7920</t>
+          <t>0.6017</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.6146</t>
+          <t>0.5548</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.7660</t>
+          <t>0.4946</t>
         </is>
       </c>
     </row>
@@ -1791,57 +1791,57 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_2.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.8807</t>
+          <t>0.8857</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.9054</t>
+          <t>0.8144</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.8945</t>
+          <t>0.8998</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.9194</t>
+          <t>0.8507</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.8855</t>
+          <t>0.8943</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.8926</t>
+          <t>0.8329</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.6961</t>
+          <t>0.6888</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.7920</t>
+          <t>0.6156</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.6146</t>
+          <t>0.5887</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.7660</t>
+          <t>0.5247</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_3.log</t>
+          <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_1.log</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.9054</t>
+          <t>0.8172</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.9194</t>
+          <t>0.8491</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.8926</t>
+          <t>0.8235</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.7920</t>
+          <t>0.6245</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.7660</t>
+          <t>0.5502</t>
         </is>
       </c>
     </row>
@@ -1916,24 +1916,64 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_ResDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_8_nfilters_5_nblocks_1.log</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+          <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.8807</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.8172</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.8945</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8491</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.8855</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.8235</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.6961</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.6245</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.6146</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.5502</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1941,24 +1981,64 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_ResDecoder</t>
+          <t>Resnet34_MHSABridge_ResDecoder</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_8_nfilters_5_nblocks_2.log</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+          <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.8807</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.8172</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.8945</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8491</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.8855</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.8235</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0.6961</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.6245</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.6146</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0.5502</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1966,24 +2046,64 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_ResDecoder</t>
+          <t>Resnet34_Resnet34_ResDecoder</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>structure_loss_size_256_bs_8_nfilters_5_nblocks_3.log</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+          <t>structure_loss_size_256_bs_16_nfilters_5.log</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.8916</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.8205</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.8754</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8270</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.8948</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.8327</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0.6993</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.6266</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.6076</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0.5409</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1991,62 +2111,62 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Resnet50_MHSABridge_ResDecoder</t>
+          <t>Resnet34_Resnet34_ResDecoder</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+          <t>structure_loss_size_352_bs_16_nfilters_5.log</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.8920</t>
+          <t>0.8635</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.9062</t>
+          <t>0.7963</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.8772</t>
+          <t>0.8889</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.9080</t>
+          <t>0.8424</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.8770</t>
+          <t>0.8788</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.8911</t>
+          <t>0.8201</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.6353</t>
+          <t>0.7077</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.7619</t>
+          <t>0.6340</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.5153</t>
+          <t>0.6289</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.7205</t>
+          <t>0.5593</t>
         </is>
       </c>
     </row>
@@ -2061,59 +2181,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_1.log</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.8617</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.8939</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.8736</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.9041</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0.8845</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.8961</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>0.6501</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0.7679</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>0.5903</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>0.7543</t>
-        </is>
-      </c>
+          <t>structure_loss_size_256_bs_8_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2126,59 +2206,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_2.log</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.8800</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.9017</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.8837</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.9091</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.8810</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.8916</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0.6879</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0.7865</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>0.5831</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>0.7500</t>
-        </is>
-      </c>
+          <t>structure_loss_size_256_bs_8_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2191,57 +2231,277 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>structure_loss_size_256_bs_8_nfilters_5_nblocks_3.log</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_16_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.8920</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.8203</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.8772</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8283</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.8770</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.8201</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0.6353</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0.5683</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.5153</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_1.log</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.8617</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.7969</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.8736</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8221</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.8845</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.8271</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0.6501</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0.5795</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0.5903</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0.5287</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_2.log</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.8800</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.8116</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.8837</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8319</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.8810</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.8218</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0.6879</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0.6134</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0.5831</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.5225</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Resnet50_MHSABridge_ResDecoder</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>structure_loss_size_352_bs_8_nfilters_5_nblocks_3.log</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>0.8800</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.9017</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.8116</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>0.8837</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.9091</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8319</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>0.8810</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.8916</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.8218</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>0.6879</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0.7865</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.6134</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>0.5831</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>0.7500</t>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.5225</t>
         </is>
       </c>
     </row>
